--- a/data dictionary A1 test.xlsx
+++ b/data dictionary A1 test.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allen\Dropbox\UOW CSCI222\02 Assignment A1 15 %\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kalista\Dropbox\UOW CSCI222\Project\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="41">
   <si>
     <t>Data Dictionary</t>
   </si>
@@ -144,6 +144,9 @@
   </si>
   <si>
     <t>WMCategory</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -250,10 +253,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -540,32 +543,35 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="54.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5546875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="54.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-    </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="B1" s="14"/>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -582,7 +588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -599,7 +605,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -616,7 +622,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -633,7 +639,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
@@ -650,7 +656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
@@ -667,7 +673,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>18</v>
       </c>
@@ -684,7 +690,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="2" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="2" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -701,19 +707,19 @@
         <v>43081</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="8" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="8" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="12"/>
     </row>
-    <row r="13" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14" t="s">
+    <row r="13" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
@@ -730,7 +736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
@@ -747,7 +753,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
@@ -764,7 +770,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
@@ -781,7 +787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
@@ -798,12 +804,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>2</v>
       </c>
@@ -820,7 +826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -837,7 +843,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
@@ -854,19 +860,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>2</v>
       </c>
@@ -883,7 +889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>33</v>
       </c>
@@ -900,7 +906,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>34</v>
       </c>
@@ -917,12 +923,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="14" t="s">
+    <row r="30" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>2</v>
       </c>
@@ -939,7 +945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>12</v>
       </c>
@@ -956,7 +962,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>16</v>
       </c>
